--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Wnt1</t>
   </si>
   <si>
     <t>Ror2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H2">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1378523333333333</v>
+        <v>0.11549</v>
       </c>
       <c r="N2">
-        <v>0.413557</v>
+        <v>0.34647</v>
       </c>
       <c r="O2">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="P2">
-        <v>0.01719056794796269</v>
+        <v>0.01449407350231777</v>
       </c>
       <c r="Q2">
-        <v>0.003211407957333333</v>
+        <v>0.01082152849</v>
       </c>
       <c r="R2">
-        <v>0.028902671616</v>
+        <v>0.09739375640999999</v>
       </c>
       <c r="S2">
-        <v>0.01719056794796269</v>
+        <v>0.009616770506508691</v>
       </c>
       <c r="T2">
-        <v>0.01719056794796269</v>
+        <v>0.009616770506508693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H3">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.078362</v>
       </c>
       <c r="O3">
-        <v>0.9593118967607375</v>
+        <v>0.9654500393716549</v>
       </c>
       <c r="P3">
-        <v>0.9593118967607375</v>
+        <v>0.965450039371655</v>
       </c>
       <c r="Q3">
-        <v>0.1792111737173334</v>
+        <v>0.7208218659206667</v>
       </c>
       <c r="R3">
-        <v>1.612900563456</v>
+        <v>6.487396793286</v>
       </c>
       <c r="S3">
-        <v>0.9593118967607375</v>
+        <v>0.6405729529833202</v>
       </c>
       <c r="T3">
-        <v>0.9593118967607375</v>
+        <v>0.6405729529833203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +658,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
+        <v>0.09370099999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.281103</v>
+      </c>
+      <c r="I4">
+        <v>0.6634967391997054</v>
+      </c>
+      <c r="J4">
+        <v>0.6634967391997054</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.159807</v>
+      </c>
+      <c r="N4">
+        <v>0.479421</v>
+      </c>
+      <c r="O4">
+        <v>0.02005588712602732</v>
+      </c>
+      <c r="P4">
+        <v>0.02005588712602732</v>
+      </c>
+      <c r="Q4">
+        <v>0.014974075707</v>
+      </c>
+      <c r="R4">
+        <v>0.134766681363</v>
+      </c>
+      <c r="S4">
+        <v>0.01330701570987648</v>
+      </c>
+      <c r="T4">
+        <v>0.01330701570987648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
         <v>0.023296</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>0.06988800000000001</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="I5">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J5">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M4">
-        <v>0.1884283333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.565285</v>
-      </c>
-      <c r="O4">
-        <v>0.02349753529129985</v>
-      </c>
-      <c r="P4">
-        <v>0.02349753529129985</v>
-      </c>
-      <c r="Q4">
-        <v>0.004389626453333333</v>
-      </c>
-      <c r="R4">
-        <v>0.03950663808</v>
-      </c>
-      <c r="S4">
-        <v>0.02349753529129985</v>
-      </c>
-      <c r="T4">
-        <v>0.02349753529129985</v>
+      <c r="M5">
+        <v>0.11549</v>
+      </c>
+      <c r="N5">
+        <v>0.34647</v>
+      </c>
+      <c r="O5">
+        <v>0.01449407350231777</v>
+      </c>
+      <c r="P5">
+        <v>0.01449407350231777</v>
+      </c>
+      <c r="Q5">
+        <v>0.00269045504</v>
+      </c>
+      <c r="R5">
+        <v>0.02421409536</v>
+      </c>
+      <c r="S5">
+        <v>0.002390927372382648</v>
+      </c>
+      <c r="T5">
+        <v>0.002390927372382648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.023296</v>
+      </c>
+      <c r="H6">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J6">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.692787333333334</v>
+      </c>
+      <c r="N6">
+        <v>23.078362</v>
+      </c>
+      <c r="O6">
+        <v>0.9654500393716549</v>
+      </c>
+      <c r="P6">
+        <v>0.965450039371655</v>
+      </c>
+      <c r="Q6">
+        <v>0.1792111737173334</v>
+      </c>
+      <c r="R6">
+        <v>1.612900563456</v>
+      </c>
+      <c r="S6">
+        <v>0.1592596398405506</v>
+      </c>
+      <c r="T6">
+        <v>0.1592596398405506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.023296</v>
+      </c>
+      <c r="H7">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.159807</v>
+      </c>
+      <c r="N7">
+        <v>0.479421</v>
+      </c>
+      <c r="O7">
+        <v>0.02005588712602732</v>
+      </c>
+      <c r="P7">
+        <v>0.02005588712602732</v>
+      </c>
+      <c r="Q7">
+        <v>0.003722863872</v>
+      </c>
+      <c r="R7">
+        <v>0.033505774848</v>
+      </c>
+      <c r="S7">
+        <v>0.003308398394651951</v>
+      </c>
+      <c r="T7">
+        <v>0.003308398394651951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.024226</v>
+      </c>
+      <c r="H8">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J8">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.11549</v>
+      </c>
+      <c r="N8">
+        <v>0.34647</v>
+      </c>
+      <c r="O8">
+        <v>0.01449407350231777</v>
+      </c>
+      <c r="P8">
+        <v>0.01449407350231777</v>
+      </c>
+      <c r="Q8">
+        <v>0.00279786074</v>
+      </c>
+      <c r="R8">
+        <v>0.02518074666</v>
+      </c>
+      <c r="S8">
+        <v>0.002486375623426426</v>
+      </c>
+      <c r="T8">
+        <v>0.002486375623426427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.024226</v>
+      </c>
+      <c r="H9">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J9">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.692787333333334</v>
+      </c>
+      <c r="N9">
+        <v>23.078362</v>
+      </c>
+      <c r="O9">
+        <v>0.9654500393716549</v>
+      </c>
+      <c r="P9">
+        <v>0.965450039371655</v>
+      </c>
+      <c r="Q9">
+        <v>0.1863654659373334</v>
+      </c>
+      <c r="R9">
+        <v>1.677289193436</v>
+      </c>
+      <c r="S9">
+        <v>0.1656174465477841</v>
+      </c>
+      <c r="T9">
+        <v>0.1656174465477841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.024226</v>
+      </c>
+      <c r="H10">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J10">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.159807</v>
+      </c>
+      <c r="N10">
+        <v>0.479421</v>
+      </c>
+      <c r="O10">
+        <v>0.02005588712602732</v>
+      </c>
+      <c r="P10">
+        <v>0.02005588712602732</v>
+      </c>
+      <c r="Q10">
+        <v>0.003871484382</v>
+      </c>
+      <c r="R10">
+        <v>0.034843359438</v>
+      </c>
+      <c r="S10">
+        <v>0.003440473021498892</v>
+      </c>
+      <c r="T10">
+        <v>0.003440473021498892</v>
       </c>
     </row>
   </sheetData>
